--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>698340.3979660786</v>
+        <v>654408.7153765132</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12477039.73816156</v>
+        <v>12433754.73901463</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7009463.231764776</v>
+        <v>6542240.186367741</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9126030.188353419</v>
+        <v>9358023.808592195</v>
       </c>
     </row>
     <row r="11">
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>165.1725371760945</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663199</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663199</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663199</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>32.55518202532707</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>62.42506650037875</v>
+        <v>107.3880719186414</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>131.8294280492387</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>161.4800459487523</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>116.9725659584294</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>138.8365465757245</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.62520054253655</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.74703566813383</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.6607451075071</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6498268080146</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>127.3940136907024</v>
+        <v>0.306289353352704</v>
       </c>
     </row>
     <row r="7">
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.913789260777692</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>200.4014587515236</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
-        <v>204.2688325015152</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>320.5019845039324</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>240.0612860394359</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>92.83360621149697</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046393</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>109.5662569611018</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>172.8335856404991</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.648630020762275</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>314.0103144996435</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>37.38100496017476</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>52.45726733572512</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>101.916980881841</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.7576914549238</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>116.6290529729275</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1821,7 +1821,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>111.9684348866502</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>120.3577665219461</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>122.4179473152586</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>87.22506181228407</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,16 +2089,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>229.7965692041371</v>
+        <v>266.4170932868211</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>131.573039120795</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>114.4746605491558</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,22 +2320,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>85.40855736262309</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>91.61745183477008</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>91.7948943442801</v>
+        <v>70.82764119510665</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2493,10 +2493,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2535,7 +2535,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>259.271071612839</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>33.78298043858148</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>111.9187566128687</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>18.26879610204004</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,19 +2794,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>111.1649632954318</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>229.7965692041367</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>15.11174121957099</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>85.82697502376037</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3037,10 +3037,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>269.7905074560767</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>281.8418017252665</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>17.25588147840211</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>59.35991151980221</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>224.296677077742</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>142.0975176632405</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>39.61269521953754</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>183.0172251110635</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>229.796569204138</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>102.8695072550969</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>77.31354443380542</v>
+        <v>18.26879610204004</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>92.47445699814396</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>230.2267521569518</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>114.2656173771025</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951288</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>101.8907566840634</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>229.7965692041388</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.93482921065078</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4194,7 +4194,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668619</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.00204697330559</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330559</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330559</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330559</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330559</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652795</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>583.2614020227597</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="U2" t="n">
-        <v>393.841617006275</v>
+        <v>586.7364457822816</v>
       </c>
       <c r="V2" t="n">
-        <v>204.4218319897903</v>
+        <v>320.3587892151036</v>
       </c>
       <c r="W2" t="n">
-        <v>15.00204697330559</v>
+        <v>53.98113264792562</v>
       </c>
       <c r="X2" t="n">
-        <v>15.00204697330559</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.00204697330559</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>497.6269409211394</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>323.1739116400124</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>174.2395019787611</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652795</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652795</v>
+        <v>826.7196740428383</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652795</v>
+        <v>591.5675658110956</v>
       </c>
       <c r="W3" t="n">
-        <v>560.6825636487947</v>
+        <v>337.330209082894</v>
       </c>
       <c r="X3" t="n">
-        <v>497.6269409211394</v>
+        <v>228.8574091650744</v>
       </c>
       <c r="Y3" t="n">
-        <v>497.6269409211394</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>746.7254979846272</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C4" t="n">
-        <v>746.7254979846272</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>746.7254979846272</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>598.8124044022341</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>465.6513659686595</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>296.9625425315745</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>141.9790366408477</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830973</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>559.190287677754</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143042</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846272</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846272</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846272</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846272</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="U4" t="n">
-        <v>746.7254979846272</v>
+        <v>762.9518343167155</v>
       </c>
       <c r="V4" t="n">
-        <v>746.7254979846272</v>
+        <v>508.2673461108286</v>
       </c>
       <c r="W4" t="n">
-        <v>746.7254979846272</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X4" t="n">
-        <v>746.7254979846272</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y4" t="n">
-        <v>746.7254979846272</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1054.855520006024</v>
+        <v>402.8279533317689</v>
       </c>
       <c r="C5" t="n">
-        <v>788.4778634388465</v>
+        <v>33.86543639135715</v>
       </c>
       <c r="D5" t="n">
-        <v>522.1002068716687</v>
+        <v>33.86543639135715</v>
       </c>
       <c r="E5" t="n">
-        <v>522.1002068716687</v>
+        <v>33.86543639135715</v>
       </c>
       <c r="F5" t="n">
-        <v>522.1002068716687</v>
+        <v>33.86543639135715</v>
       </c>
       <c r="G5" t="n">
-        <v>403.9460998429521</v>
+        <v>33.86543639135715</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757742</v>
+        <v>33.86543639135715</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>33.86543639135715</v>
       </c>
       <c r="J5" t="n">
-        <v>49.2826908791767</v>
+        <v>108.4604468780269</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>270.9975490818676</v>
       </c>
       <c r="L5" t="n">
-        <v>294.517494751591</v>
+        <v>509.5409587373957</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030607</v>
+        <v>806.6359018176441</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>1113.151960058964</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>1389.25112083669</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601763</v>
+        <v>1590.39436592168</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>1693.271819567857</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>1693.271819567857</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006024</v>
+        <v>1693.271819567857</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006024</v>
+        <v>1693.271819567857</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006024</v>
+        <v>1693.271819567857</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006024</v>
+        <v>1553.032883632782</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006024</v>
+        <v>1553.032883632782</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006024</v>
+        <v>1179.567125371702</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006024</v>
+        <v>789.4277933958906</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>503.7220043479542</v>
+        <v>931.8121952449673</v>
       </c>
       <c r="C6" t="n">
-        <v>329.2689750668272</v>
+        <v>757.3591659638403</v>
       </c>
       <c r="D6" t="n">
-        <v>180.334565405576</v>
+        <v>608.424756302589</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>449.1873012971336</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>302.6527433240186</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>165.5545638768828</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>67.95335120765395</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>33.86543639135715</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>124.0742315427314</v>
       </c>
       <c r="K6" t="n">
-        <v>141.1068094710485</v>
+        <v>246.0013607545359</v>
       </c>
       <c r="L6" t="n">
-        <v>287.8512331313451</v>
+        <v>456.26997387727</v>
       </c>
       <c r="M6" t="n">
-        <v>478.4519222278687</v>
+        <v>721.0003958340101</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>1007.146089245737</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560895</v>
+        <v>1246.693700419933</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>1419.618711034401</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>1693.271819567857</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006024</v>
+        <v>1693.271819567857</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006024</v>
+        <v>1550.180157843103</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006024</v>
+        <v>1354.574272178442</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006024</v>
+        <v>1354.574272178442</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006024</v>
+        <v>1354.574272178442</v>
       </c>
       <c r="W6" t="n">
-        <v>800.6181632778228</v>
+        <v>1100.33691545024</v>
       </c>
       <c r="X6" t="n">
-        <v>800.6181632778228</v>
+        <v>1100.33691545024</v>
       </c>
       <c r="Y6" t="n">
-        <v>671.9373413680223</v>
+        <v>1100.027532265035</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.09711040012049</v>
+        <v>35.79855685678916</v>
       </c>
       <c r="C7" t="n">
-        <v>21.09711040012049</v>
+        <v>35.79855685678916</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09711040012049</v>
+        <v>35.79855685678916</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>35.79855685678916</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>33.86543639135715</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>33.86543639135715</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>33.86543639135715</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>33.86543639135715</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.28512133652153</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>170.0982437128589</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>396.8594047119574</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>646.3363778191519</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227042</v>
+        <v>895.3159625361629</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075538</v>
+        <v>1109.272612021378</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816802</v>
+        <v>1268.828805580463</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006024</v>
+        <v>1295.862163397011</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407072</v>
+        <v>1295.862163397011</v>
       </c>
       <c r="S7" t="n">
-        <v>719.2759572512186</v>
+        <v>1093.436447486381</v>
       </c>
       <c r="T7" t="n">
-        <v>493.806921009233</v>
+        <v>869.0366964708239</v>
       </c>
       <c r="U7" t="n">
-        <v>287.4747669672984</v>
+        <v>579.9002150996366</v>
       </c>
       <c r="V7" t="n">
-        <v>287.4747669672984</v>
+        <v>325.2157268937498</v>
       </c>
       <c r="W7" t="n">
-        <v>21.09711040012049</v>
+        <v>35.79855685678916</v>
       </c>
       <c r="X7" t="n">
-        <v>21.09711040012049</v>
+        <v>35.79855685678916</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.09711040012049</v>
+        <v>35.79855685678916</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1111.162526029888</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="C8" t="n">
-        <v>1111.162526029888</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="D8" t="n">
-        <v>752.8968274231377</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E8" t="n">
-        <v>367.1085748248934</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F8" t="n">
-        <v>367.1085748248934</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>1986.408332017869</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561082</v>
+        <v>1655.345444674298</v>
       </c>
       <c r="W8" t="n">
-        <v>1484.628284290968</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="X8" t="n">
-        <v>1111.162526029888</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="Y8" t="n">
-        <v>1111.162526029888</v>
+        <v>1302.576789404184</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>701.68199108318</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>607.9106716776275</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9106716776275</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6732166721721</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.138658699057</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2626649141729</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>69.80729798300612</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>214.3836900926279</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>427.186815718362</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>684.7379512783496</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M9" t="n">
-        <v>1004.644846746859</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1347.42737074149</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>1638.786616996056</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.295032556957</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
-        <v>2154.745546059887</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2168.459826904653</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2029.495166406371</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>1834.784844880347</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>1606.683255013611</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1371.531146781868</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1117.293790053667</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>909.4422898481339</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>701.68199108318</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362.4220188783357</v>
+        <v>944.587906063767</v>
       </c>
       <c r="C10" t="n">
-        <v>193.4858359504288</v>
+        <v>775.6517231358602</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>625.5350837235244</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>58.6963092017423</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>213.7203003246705</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>467.6240706728883</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>745.7191196640786</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
-        <v>1022.636306385109</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1262.397853152952</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1444.034594271086</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1486.355378693647</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1486.355378693647</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1486.355378693647</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1262.751521386271</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1088.172141951423</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>833.4876537455361</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>544.0704837085755</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>544.0704837085755</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="Y10" t="n">
-        <v>544.0704837085755</v>
+        <v>1126.236370894007</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5065,28 +5065,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V11" t="n">
-        <v>2741.012457539436</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>2741.012457539436</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X11" t="n">
-        <v>2741.012457539436</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y11" t="n">
-        <v>2350.873125563624</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1889.535957219629</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.850073046456</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1697.850073046456</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1408.747206172099</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>1154.062717966212</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>864.6455479292516</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>636.6559970312343</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y13" t="n">
-        <v>415.8634178877041</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1274.53911114974</v>
+        <v>1278.332234886374</v>
       </c>
       <c r="C14" t="n">
-        <v>1274.53911114974</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="D14" t="n">
-        <v>916.2734125429899</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E14" t="n">
-        <v>530.4851599447456</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F14" t="n">
-        <v>119.4992551551381</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5290,7 +5290,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>3112.368707801073</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>2781.305820457502</v>
       </c>
       <c r="W14" t="n">
-        <v>2424.744041450754</v>
+        <v>2428.537165187387</v>
       </c>
       <c r="X14" t="n">
-        <v>2051.278283189674</v>
+        <v>2055.071406926308</v>
       </c>
       <c r="Y14" t="n">
-        <v>1661.138951213862</v>
+        <v>1664.932074950496</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218342</v>
+        <v>520.9582602004497</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>352.0220772725428</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>352.0220772725428</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>352.0220772725428</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
         <v>66.51211643218342</v>
@@ -5436,16 +5436,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5457,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>969.7403902419971</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>741.7508393439798</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836216</v>
+        <v>520.9582602004497</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1636.624422581789</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C17" t="n">
-        <v>1636.624422581789</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>2752.998168088795</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W17" t="n">
-        <v>2400.229512818681</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="X17" t="n">
-        <v>2026.763754557601</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="Y17" t="n">
-        <v>1636.624422581789</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927788</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>752.7622949738579</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="C19" t="n">
-        <v>583.826112045951</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="D19" t="n">
-        <v>433.7094726336153</v>
+        <v>302.5313330572877</v>
       </c>
       <c r="E19" t="n">
-        <v>310.0549803959803</v>
+        <v>154.6182394748946</v>
       </c>
       <c r="F19" t="n">
-        <v>310.0549803959803</v>
+        <v>154.6182394748946</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1927.294548088493</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V19" t="n">
-        <v>1672.610059882606</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W19" t="n">
-        <v>1383.192889845645</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X19" t="n">
-        <v>1155.203338947628</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y19" t="n">
-        <v>934.4107598040977</v>
+        <v>452.6479724696235</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1822.632236038043</v>
+        <v>1771.418012197379</v>
       </c>
       <c r="C20" t="n">
-        <v>1453.669719097631</v>
+        <v>1402.455495256967</v>
       </c>
       <c r="D20" t="n">
-        <v>1095.404020490881</v>
+        <v>1044.189796650217</v>
       </c>
       <c r="E20" t="n">
-        <v>709.6157678926365</v>
+        <v>1044.189796650217</v>
       </c>
       <c r="F20" t="n">
-        <v>298.629863103029</v>
+        <v>633.2038918606092</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5761,7 +5761,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.605821609171</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W20" t="n">
-        <v>2972.837166339056</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X20" t="n">
-        <v>2599.371408077976</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y20" t="n">
-        <v>2209.232076102165</v>
+        <v>2158.017852261501</v>
       </c>
     </row>
     <row r="21">
@@ -5828,16 +5828,16 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218342</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218342</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218342</v>
+        <v>494.2172172304616</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218342</v>
+        <v>346.3041236480685</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>199.4141761501582</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218342</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>1530.147236421175</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U22" t="n">
-        <v>1241.044369546818</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V22" t="n">
-        <v>986.3598813409312</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W22" t="n">
-        <v>696.9427113039706</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X22" t="n">
-        <v>468.9531604059532</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y22" t="n">
-        <v>248.1605812624231</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1619.798686923957</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C23" t="n">
-        <v>1250.836169983545</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D23" t="n">
-        <v>892.5704713767946</v>
+        <v>953.6440892486869</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>567.8558366504426</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>567.8558366504426</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218343</v>
+        <v>152.7833864954391</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
@@ -6019,22 +6019,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>3122.772272495085</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W23" t="n">
-        <v>2770.00361722497</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X23" t="n">
-        <v>2396.53785896389</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y23" t="n">
-        <v>2006.398526988078</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="24">
@@ -6059,16 +6059,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2115.681153539123</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C25" t="n">
-        <v>2115.681153539123</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D25" t="n">
-        <v>2115.681153539123</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.95903803985</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>1876.06909054194</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>1708.366253916659</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>1562.149067134517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.605821609171</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>3103.839206178698</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>2814.736339304341</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>2814.736339304341</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W25" t="n">
-        <v>2525.31916926738</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X25" t="n">
-        <v>2297.329618369363</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y25" t="n">
-        <v>2297.329618369363</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2196.097994299122</v>
+        <v>1624.638712032431</v>
       </c>
       <c r="C26" t="n">
-        <v>1934.208022973022</v>
+        <v>1255.676195092019</v>
       </c>
       <c r="D26" t="n">
-        <v>1575.942324366272</v>
+        <v>897.4104964852691</v>
       </c>
       <c r="E26" t="n">
-        <v>1190.154071768027</v>
+        <v>511.6222438870248</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1681669784198</v>
+        <v>100.6363390974172</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.60582160917</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W26" t="n">
-        <v>2972.837166339056</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X26" t="n">
-        <v>2972.837166339056</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y26" t="n">
-        <v>2582.697834363244</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="27">
@@ -6296,16 +6296,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>590.8070661251691</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C28" t="n">
-        <v>590.8070661251691</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D28" t="n">
-        <v>590.8070661251691</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E28" t="n">
-        <v>590.8070661251691</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="F28" t="n">
-        <v>477.7578170212613</v>
+        <v>84.96544582818348</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V28" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W28" t="n">
-        <v>590.8070661251691</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X28" t="n">
-        <v>590.8070661251691</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y28" t="n">
-        <v>590.8070661251691</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1822.632236038042</v>
+        <v>1363.124011696102</v>
       </c>
       <c r="C29" t="n">
-        <v>1453.669719097631</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D29" t="n">
-        <v>1095.40402049088</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E29" t="n">
-        <v>709.6157678926361</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>298.6298631030285</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
@@ -6472,7 +6472,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6484,31 +6484,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W29" t="n">
-        <v>2972.837166339056</v>
+        <v>2513.328941997116</v>
       </c>
       <c r="X29" t="n">
-        <v>2599.371408077976</v>
+        <v>2139.863183736036</v>
       </c>
       <c r="Y29" t="n">
-        <v>2209.232076102164</v>
+        <v>1749.723851760224</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>531.7821255545682</v>
+        <v>249.4793381277382</v>
       </c>
       <c r="C31" t="n">
-        <v>362.8459426266613</v>
+        <v>249.4793381277382</v>
       </c>
       <c r="D31" t="n">
-        <v>212.7293032143256</v>
+        <v>249.4793381277382</v>
       </c>
       <c r="E31" t="n">
-        <v>212.7293032143256</v>
+        <v>249.4793381277382</v>
       </c>
       <c r="F31" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6651,22 +6651,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.084292507433</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U31" t="n">
-        <v>1269.981425633076</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V31" t="n">
-        <v>1269.981425633076</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W31" t="n">
-        <v>980.5642555961157</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X31" t="n">
-        <v>752.5747046980983</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y31" t="n">
-        <v>531.7821255545682</v>
+        <v>431.1278029579779</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1619.798686923957</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C32" t="n">
-        <v>1250.836169983545</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D32" t="n">
-        <v>892.5704713767946</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F32" t="n">
         <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
@@ -6733,19 +6733,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V32" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W32" t="n">
-        <v>2277.953133796417</v>
+        <v>2358.206124969485</v>
       </c>
       <c r="X32" t="n">
-        <v>1904.487375535337</v>
+        <v>1984.740366708405</v>
       </c>
       <c r="Y32" t="n">
-        <v>1619.798686923957</v>
+        <v>1594.601034732593</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1708.366253916658</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C34" t="n">
-        <v>1708.366253916658</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D34" t="n">
-        <v>1708.366253916658</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E34" t="n">
-        <v>1708.366253916658</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="F34" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193525</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>2822.322864763051</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>2533.219997888694</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V34" t="n">
-        <v>2278.535509682808</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W34" t="n">
-        <v>1989.118339645847</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X34" t="n">
-        <v>1929.158833060188</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1708.366253916658</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1590.514489367197</v>
+        <v>1458.811090838974</v>
       </c>
       <c r="C35" t="n">
-        <v>1221.551972426786</v>
+        <v>1089.848573898563</v>
       </c>
       <c r="D35" t="n">
-        <v>863.2862738200351</v>
+        <v>1089.848573898563</v>
       </c>
       <c r="E35" t="n">
-        <v>477.498021221791</v>
+        <v>704.0603213003183</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218343</v>
+        <v>293.0744165107107</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6949,16 +6949,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3071.782307011781</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>3071.782307011781</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V35" t="n">
-        <v>2740.71941966821</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W35" t="n">
-        <v>2740.71941966821</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X35" t="n">
-        <v>2367.25366140713</v>
+        <v>2235.550262878908</v>
       </c>
       <c r="Y35" t="n">
-        <v>1977.114329431319</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>812.5736815556431</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C37" t="n">
-        <v>812.5736815556431</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D37" t="n">
-        <v>772.5608581015648</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E37" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7119,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U37" t="n">
-        <v>1356.675339798491</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V37" t="n">
-        <v>1101.990851592604</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W37" t="n">
-        <v>812.5736815556431</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X37" t="n">
-        <v>812.5736815556431</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y37" t="n">
-        <v>812.5736815556431</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1822.632236038044</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C38" t="n">
-        <v>1453.669719097632</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D38" t="n">
-        <v>1095.404020490882</v>
+        <v>971.2814123723979</v>
       </c>
       <c r="E38" t="n">
-        <v>709.6157678926375</v>
+        <v>585.4931597741536</v>
       </c>
       <c r="F38" t="n">
-        <v>298.6298631030299</v>
+        <v>585.4931597741536</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218343</v>
+        <v>170.42070961915</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218343</v>
@@ -7177,19 +7177,19 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296687</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W38" t="n">
-        <v>2972.837166339057</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X38" t="n">
-        <v>2599.371408077977</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2209.232076102166</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="39">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1861.970701620181</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C40" t="n">
-        <v>1693.034518692274</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D40" t="n">
-        <v>1542.917879279938</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E40" t="n">
-        <v>1464.823389952862</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.605821609171</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.605821609171</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>3036.502954734815</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V40" t="n">
-        <v>2781.818466528928</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W40" t="n">
-        <v>2492.401296491968</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X40" t="n">
-        <v>2264.41174559395</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y40" t="n">
-        <v>2043.61916645042</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2345.167438673965</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C41" t="n">
-        <v>1976.204921733553</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D41" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7429,34 +7429,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3121.906610713899</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3121.906610713899</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V41" t="n">
-        <v>3121.906610713899</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="W41" t="n">
-        <v>3121.906610713899</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X41" t="n">
-        <v>3121.906610713899</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y41" t="n">
-        <v>2731.767278738087</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
         <v>1617.076751502319</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1722.044275313594</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1722.044275313594</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1722.044275313594</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.044275313594</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W43" t="n">
-        <v>1722.044275313594</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X43" t="n">
-        <v>1494.054724415577</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.262145272047</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1822.632236038045</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C44" t="n">
-        <v>1453.669719097633</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="D44" t="n">
-        <v>1095.404020490883</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>709.6157678926384</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>298.6298631030308</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609172</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W44" t="n">
-        <v>2972.837166339058</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X44" t="n">
-        <v>2599.371408077978</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.232076102167</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
         <v>2407.411984886741</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C46" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D46" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E46" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1908.168457976725</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1716.482573803551</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1494.715958373077</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1205.613091498721</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>950.9286032928337</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W46" t="n">
-        <v>661.5114332558732</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X46" t="n">
-        <v>433.5218823578558</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y46" t="n">
-        <v>212.7293032143257</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777598</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761162</v>
+        <v>25.82445471157999</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418308</v>
+        <v>65.25087362574499</v>
       </c>
       <c r="K6" t="n">
-        <v>45.78351343583226</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51.53815565544056</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>45.32591189689013</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>56.2746049302074</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>48.27134388011225</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871046</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>140.226671303815</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>337.1759186531419</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22628,25 +22628,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>143.3479187030987</v>
+        <v>98.3849132848361</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22713,22 +22713,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>13.5916199736925</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>124.7785845539252</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695015</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917687</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22798,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>295.8616086872806</v>
+        <v>412.2818458970816</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776191</v>
+        <v>308.5370958323769</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.01296546539898</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>140.1815018398516</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032233</v>
+        <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>188.9157118944104</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22874,16 +22874,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527771</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22931,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>78.28868208660192</v>
+        <v>205.3764064239517</v>
       </c>
     </row>
     <row r="7">
@@ -22953,19 +22953,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>143.5072587621536</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>114.6998850700521</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888212</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.3646073887348</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -22998,13 +22998,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>81.98979800116226</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508492</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23029,19 +23029,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>91.36875033969443</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>10.98396408902613</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23086,7 +23086,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23099,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>79.87489277681877</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -23187,19 +23187,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>36.86770568546737</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>113.4014721752175</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>377.0852116427183</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>51.26257727136402</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.55114770987257</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>358.4644583177283</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>149.078191077061</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270135</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>28.79199505000372</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>215.7838235834847</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>228.8832021954669</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>24.01601533131053</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>78.80074644674416</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23977,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>181.1251564493163</v>
+        <v>144.5046323666323</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -24028,7 +24028,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>34.45276913823324</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>209.1992070246974</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24259,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>236.1348066353648</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>54.63906830228908</v>
+        <v>75.60632145146252</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>106.0018201581685</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>377.138745214872</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24499,16 +24499,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>33.50229141006257</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>147.7570121569882</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>254.1079284755758</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>181.1251564493168</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24733,10 +24733,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>130.3093068033602</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.7219742524088</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24925,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>79.45046126133633</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>104.3961369307871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>128.1651665445291</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>166.3497438692349</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>186.6250485757114</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25207,16 +25207,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>61.82045247637967</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>109.0027777986748</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>181.1251564493155</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>191.7382571322235</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>69.12041821276375</v>
+        <v>128.1651665445291</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25599,10 +25599,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>111.4435131414762</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>97.52550631318312</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>75.50340795433937</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>252.7922849366195</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>181.1251564493146</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -25924,7 +25924,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26040,7 +26040,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>69.99732345939654</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>16.14213605696614</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>463673.9492869357</v>
+        <v>526021.0465876196</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>526021.0465876195</v>
+        <v>636869.8957266308</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>718396.6610026539</v>
+        <v>786603.5371079207</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>863471.7387975234</v>
+        <v>863471.7387975235</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>863471.7387975235</v>
+        <v>863471.7387975238</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>863471.7387975235</v>
+        <v>863471.7387975237</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>863471.7387975235</v>
+        <v>863471.7387975234</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>863471.7387975234</v>
+        <v>863471.7387975237</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>863471.7387975235</v>
+        <v>863471.7387975234</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>863471.7387975237</v>
+        <v>863471.7387975234</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>863471.7387975237</v>
+        <v>863471.7387975234</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180441.6164408226</v>
+        <v>203966.5811971124</v>
       </c>
       <c r="C2" t="n">
-        <v>203966.5811971124</v>
+        <v>247461.8373661094</v>
       </c>
       <c r="D2" t="n">
-        <v>279547.2423401895</v>
+        <v>305971.6304943086</v>
       </c>
       <c r="E2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="F2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="G2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="H2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="I2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="J2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="K2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="L2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="M2" t="n">
         <v>340997.0989709204</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="O2" t="n">
         <v>340997.0989709205</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>340997.0989709205</v>
-      </c>
-      <c r="N2" t="n">
-        <v>340997.0989709205</v>
-      </c>
-      <c r="O2" t="n">
-        <v>340997.0989709207</v>
-      </c>
-      <c r="P2" t="n">
-        <v>340997.0989709206</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>84336.10254477398</v>
+        <v>176672.6241739472</v>
       </c>
       <c r="D3" t="n">
-        <v>291724.1809599827</v>
+        <v>223886.3093819101</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.74576691</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.9447285445</v>
+        <v>68999.15441911414</v>
       </c>
       <c r="K3" t="n">
-        <v>19608.42855040621</v>
+        <v>41076.98154640742</v>
       </c>
       <c r="L3" t="n">
-        <v>70460.80690932022</v>
+        <v>54988.2912194688</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608619</v>
+        <v>47552.26579341482</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12732.52128191989</v>
+        <v>16333.27348544815</v>
       </c>
       <c r="C4" t="n">
-        <v>16333.27348544816</v>
+        <v>18567.93185710822</v>
       </c>
       <c r="D4" t="n">
-        <v>19973.84716017452</v>
+        <v>22196.27613594852</v>
       </c>
       <c r="E4" t="n">
         <v>11600.2349971284</v>
       </c>
       <c r="F4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712842</v>
       </c>
       <c r="G4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712841</v>
       </c>
       <c r="H4" t="n">
         <v>11600.2349971284</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>75746.87167923096</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26493,10 +26493,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
@@ -26508,10 +26508,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-480633.6077735563</v>
+        <v>-565830.1912705465</v>
       </c>
       <c r="C6" t="n">
-        <v>40249.40196262406</v>
+        <v>-31678.54272247861</v>
       </c>
       <c r="D6" t="n">
-        <v>-117349.86763584</v>
+        <v>-38276.19018528635</v>
       </c>
       <c r="E6" t="n">
-        <v>-20940.22235451105</v>
+        <v>69541.35429714709</v>
       </c>
       <c r="F6" t="n">
-        <v>255090.5234123989</v>
+        <v>251614.3341143379</v>
       </c>
       <c r="G6" t="n">
-        <v>255090.5234123988</v>
+        <v>251614.3341143379</v>
       </c>
       <c r="H6" t="n">
-        <v>255090.5234123989</v>
+        <v>251614.3341143378</v>
       </c>
       <c r="I6" t="n">
-        <v>255090.5234123989</v>
+        <v>251614.334114338</v>
       </c>
       <c r="J6" t="n">
-        <v>206025.5786838543</v>
+        <v>182615.1796952236</v>
       </c>
       <c r="K6" t="n">
-        <v>235482.0948619925</v>
+        <v>210537.3525679305</v>
       </c>
       <c r="L6" t="n">
-        <v>184629.7165030786</v>
+        <v>196626.0428948691</v>
       </c>
       <c r="M6" t="n">
-        <v>182999.1707963127</v>
+        <v>204062.0683209228</v>
       </c>
       <c r="N6" t="n">
-        <v>255090.5234123988</v>
+        <v>251614.334114338</v>
       </c>
       <c r="O6" t="n">
-        <v>255090.5234123989</v>
+        <v>251614.3341143378</v>
       </c>
       <c r="P6" t="n">
-        <v>255090.5234123988</v>
+        <v>251614.3341143378</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.055013769478</v>
+        <v>751.4467899908039</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26776,10 +26776,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>423.3179548919643</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="K4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>65.58507285657345</v>
+        <v>137.3917762213256</v>
       </c>
       <c r="D3" t="n">
-        <v>239.6556507682061</v>
+        <v>182.6181021267353</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556142</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>76.18829283518622</v>
+        <v>159.6040748904581</v>
       </c>
       <c r="D4" t="n">
-        <v>278.4010767246571</v>
+        <v>217.2668772080746</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761293</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663195</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
-        <v>76.18829283518622</v>
+        <v>159.6040748904581</v>
       </c>
       <c r="L4" t="n">
-        <v>278.4010767246572</v>
+        <v>217.2668772080746</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761296</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>76.18829283518622</v>
+        <v>159.6040748904581</v>
       </c>
       <c r="L4" t="n">
-        <v>278.4010767246571</v>
+        <v>217.2668772080746</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761293</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425035</v>
+        <v>3.020891618053481</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649915</v>
+        <v>30.93770628339022</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350877</v>
+        <v>116.4629241050069</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>256.3943999677668</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016251</v>
+        <v>384.2687421599708</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167916</v>
+        <v>476.7193540159751</v>
       </c>
       <c r="M5" t="n">
-        <v>433.458039945929</v>
+        <v>530.4421353285337</v>
       </c>
       <c r="N5" t="n">
-        <v>440.471844198683</v>
+        <v>539.0252436383282</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>508.9862526113088</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>434.4079907906134</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>326.2223097190731</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465205</v>
+        <v>189.7610831025521</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702305</v>
+        <v>68.83856774639376</v>
       </c>
       <c r="T5" t="n">
-        <v>10.8061339609081</v>
+        <v>13.22395305802912</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.2416713294442784</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.616319510546258</v>
       </c>
       <c r="H6" t="n">
-        <v>12.75612396528671</v>
+        <v>15.61024369395991</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990946</v>
+        <v>55.64959718328124</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>152.7067481433199</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>261.0001553499192</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458303</v>
+        <v>350.9469182876863</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>409.5385005449881</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>420.3777660345725</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542724</v>
+        <v>384.5635284587843</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>308.6461353077323</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825178</v>
+        <v>206.3217676970978</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736542</v>
+        <v>100.3535920670738</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>30.02242599633069</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944812</v>
+        <v>6.514901886807063</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.1063368099043591</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.35506798195063</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582785</v>
+        <v>12.0477862395247</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244973</v>
+        <v>40.75058985720623</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779065</v>
+        <v>95.80330632390952</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>157.4342619029913</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>201.461652516551</v>
       </c>
       <c r="M7" t="n">
-        <v>173.5762393840509</v>
+        <v>212.4130655706792</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734693</v>
+        <v>207.3623576379543</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>191.5326998488036</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>163.8893130170107</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919118</v>
+        <v>113.4684652886114</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350553</v>
+        <v>60.92878398843467</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>23.6151392854487</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715649</v>
+        <v>5.789835922879963</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.07391279901548899</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32487,7 +32487,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P20" t="n">
         <v>629.9949819746414</v>
@@ -32806,7 +32806,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33663,7 +33663,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
         <v>769.2673490574995</v>
@@ -33985,7 +33985,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663199</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068212</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.470283312177</v>
+        <v>75.34849544108056</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664455</v>
+        <v>164.1788911149902</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468043</v>
+        <v>240.9529390459879</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186563</v>
+        <v>300.095902101261</v>
       </c>
       <c r="N5" t="n">
-        <v>211.058780602092</v>
+        <v>309.6121800417373</v>
       </c>
       <c r="O5" t="n">
-        <v>185.826860744151</v>
+        <v>278.8880411896221</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716376</v>
+        <v>203.1749950353439</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117347</v>
+        <v>103.9166198446236</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>91.11999510239821</v>
       </c>
       <c r="K6" t="n">
-        <v>121.2219182534626</v>
+        <v>123.1587163755602</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659561</v>
+        <v>212.3925385078122</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>267.4044666229698</v>
       </c>
       <c r="N6" t="n">
-        <v>263.7138800015061</v>
+        <v>289.0360539512392</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>241.9672840143399</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>174.6717278934021</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649633</v>
+        <v>276.4172813469253</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.444126207236749</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966405</v>
+        <v>135.1647700771085</v>
       </c>
       <c r="L7" t="n">
-        <v>192.2171678043497</v>
+        <v>229.0516777768671</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458915</v>
+        <v>251.9969425325198</v>
       </c>
       <c r="N7" t="n">
-        <v>213.5811567526979</v>
+        <v>251.4945300171829</v>
       </c>
       <c r="O7" t="n">
-        <v>181.0986910958077</v>
+        <v>216.1178277628433</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>161.1678722819042</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496797</v>
+        <v>27.30642203691701</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>172.7419126813483</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>214.9526521472061</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>304.4954681847781</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R9" t="n">
-        <v>13.85280893410651</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.48193198348409</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>156.5898900231598</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>256.4684548971897</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>280.9040898900911</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>279.7143300212425</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>242.1833805735793</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>183.4714556748827</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.74826709349593</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36454,7 +36454,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37633,7 +37633,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>654408.7153765132</v>
+        <v>691985.8706303725</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12433754.73901463</v>
+        <v>12462791.62801786</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6542240.186367741</v>
+        <v>6927973.460166834</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9358023.808592195</v>
+        <v>9169339.733978253</v>
       </c>
     </row>
     <row r="11">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015062</v>
+        <v>211.2228407230377</v>
       </c>
       <c r="X2" t="n">
-        <v>32.55518202532707</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>36.43527059596971</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="X3" t="n">
-        <v>107.3880719186414</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>211.2228407230377</v>
       </c>
       <c r="U4" t="n">
-        <v>161.4800459487523</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015062</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>138.8365465757245</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>79.51149230610422</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>52.1506274423885</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253655</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813383</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.6607451075071</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080146</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.306289353352704</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.913789260777692</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515236</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1557535054015</v>
+        <v>161.0223823714487</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>138.7877606686617</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>240.0612860394359</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>71.53745763198253</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>109.5662569611018</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>220.6294352732988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,22 +1372,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>314.0103144996435</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>21.30849817221564</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.6898441249713</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>70.82764119510618</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,16 +1609,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>6.284770091045266</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>101.916980881841</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>116.6290529729275</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>56.258024108404</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>318.4685234071032</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>120.3577665219461</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>87.22506181228407</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>63.10551370434614</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>266.4170932868211</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>231.8420908016143</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>131.573039120795</v>
+        <v>116.1222167975245</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2323,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>195.5565936082887</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>85.40855736262309</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>14.10967693124385</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>70.82764119510665</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>65.72456219185356</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>33.78298043858148</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.26879610204004</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192031</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>174.9123239800296</v>
       </c>
       <c r="C29" t="n">
-        <v>111.1649632954318</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2851,16 +2851,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>15.11174121957099</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>80.50796942908565</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>360.9940359095075</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>269.7905074560767</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>17.25588147840211</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>224.296677077742</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>102.8695072550965</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>155.1634067967807</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>183.0172251110635</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>102.8695072550969</v>
+        <v>110.0923443600226</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>18.26879610204004</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3720,16 +3720,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>104.1375486291682</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>110.9192708864243</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>230.2267521569518</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>108.1788790740154</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>202.4425172951288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>101.8907566840634</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>22.79319361026285</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744748</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4194,7 +4194,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>235.9955072668619</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.0971104001205</v>
+        <v>745.8753877952752</v>
       </c>
       <c r="C2" t="n">
-        <v>21.0971104001205</v>
+        <v>745.8753877952752</v>
       </c>
       <c r="D2" t="n">
-        <v>21.0971104001205</v>
+        <v>745.8753877952752</v>
       </c>
       <c r="E2" t="n">
-        <v>21.0971104001205</v>
+        <v>503.6451371472903</v>
       </c>
       <c r="F2" t="n">
-        <v>21.0971104001205</v>
+        <v>503.6451371472903</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>261.4148864993053</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>40.41888584470371</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>122.982040419296</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>262.3106962605492</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>449.0101090859568</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>643.3443219779392</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>813.5133472948987</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>924.2476725444252</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411528</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="U2" t="n">
-        <v>586.7364457822816</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="V2" t="n">
-        <v>320.3587892151036</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="W2" t="n">
-        <v>53.98113264792562</v>
+        <v>745.8753877952752</v>
       </c>
       <c r="X2" t="n">
-        <v>21.0971104001205</v>
+        <v>745.8753877952752</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.0971104001205</v>
+        <v>745.8753877952752</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.0971104001205</v>
+        <v>55.98793948361305</v>
       </c>
       <c r="C3" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>86.79245551467741</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>224.0220535303714</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>403.5193898849762</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>602.1761315376409</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>827.8052238367445</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>936.4948513640434</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>938.1198929682071</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>938.1198929682071</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>741.1305971282947</v>
       </c>
       <c r="U3" t="n">
-        <v>826.7196740428383</v>
+        <v>741.1305971282947</v>
       </c>
       <c r="V3" t="n">
-        <v>591.5675658110956</v>
+        <v>505.9784888965519</v>
       </c>
       <c r="W3" t="n">
-        <v>337.330209082894</v>
+        <v>263.748238248567</v>
       </c>
       <c r="X3" t="n">
-        <v>228.8574091650744</v>
+        <v>263.748238248567</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.0971104001205</v>
+        <v>55.98793948361305</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="C4" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="D4" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="E4" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>120.2325654469302</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>245.1780356031036</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>450.4476363223416</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>656.2710011584459</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>830.3658965470447</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>955.8134731456604</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407077</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407077</v>
+        <v>745.8753877952752</v>
       </c>
       <c r="U4" t="n">
-        <v>762.9518343167155</v>
+        <v>503.6451371472903</v>
       </c>
       <c r="V4" t="n">
-        <v>508.2673461108286</v>
+        <v>261.4148864993053</v>
       </c>
       <c r="W4" t="n">
-        <v>241.8896895436506</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="X4" t="n">
-        <v>241.8896895436506</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132041</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>402.8279533317689</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="C5" t="n">
-        <v>33.86543639135715</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="D5" t="n">
-        <v>33.86543639135715</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="E5" t="n">
-        <v>33.86543639135715</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="F5" t="n">
-        <v>33.86543639135715</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G5" t="n">
-        <v>33.86543639135715</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>33.86543639135715</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135715</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780269</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818676</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373957</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176441</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058964</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.25112083669</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.39436592168</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567857</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567857</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567857</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1693.271819567857</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>1693.271819567857</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V5" t="n">
-        <v>1553.032883632782</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="W5" t="n">
-        <v>1553.032883632782</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="X5" t="n">
-        <v>1179.567125371702</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="Y5" t="n">
-        <v>789.4277933958906</v>
+        <v>553.8524235344764</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.8121952449673</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="C6" t="n">
-        <v>757.3591659638403</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="D6" t="n">
-        <v>608.424756302589</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="E6" t="n">
-        <v>449.1873012971336</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="F6" t="n">
-        <v>302.6527433240186</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5545638768828</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>67.95335120765395</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135715</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>124.0742315427314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>246.0013607545359</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>456.26997387727</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>721.0003958340101</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>1007.146089245737</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>1246.693700419933</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1419.618711034401</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.271819567857</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567857</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1550.180157843103</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1354.574272178442</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>1354.574272178442</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>1354.574272178442</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="W6" t="n">
-        <v>1100.33691545024</v>
+        <v>565.4660550460803</v>
       </c>
       <c r="X6" t="n">
-        <v>1100.33691545024</v>
+        <v>565.4660550460803</v>
       </c>
       <c r="Y6" t="n">
-        <v>1100.027532265035</v>
+        <v>357.7057562811264</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.79855685678916</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>35.79855685678916</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>35.79855685678916</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>35.79855685678916</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>33.86543639135715</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>33.86543639135715</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135715</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135715</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652153</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128589</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119574</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191519</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361629</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021378</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580463</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397011</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397011</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1093.436447486381</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T7" t="n">
-        <v>869.0366964708239</v>
+        <v>685.4196143342645</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9002150996366</v>
+        <v>685.4196143342645</v>
       </c>
       <c r="V7" t="n">
-        <v>325.2157268937498</v>
+        <v>430.7351261283775</v>
       </c>
       <c r="W7" t="n">
-        <v>35.79855685678916</v>
+        <v>430.7351261283775</v>
       </c>
       <c r="X7" t="n">
-        <v>35.79855685678916</v>
+        <v>202.7455752303602</v>
       </c>
       <c r="Y7" t="n">
-        <v>35.79855685678916</v>
+        <v>202.7455752303602</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1302.576789404184</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="C8" t="n">
-        <v>1302.576789404184</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974335</v>
+        <v>1642.528350064221</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>845.7541926763687</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U8" t="n">
-        <v>1986.408332017869</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="V8" t="n">
-        <v>1655.345444674298</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="W8" t="n">
-        <v>1302.576789404184</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="X8" t="n">
-        <v>1302.576789404184</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="Y8" t="n">
-        <v>1302.576789404184</v>
+        <v>1782.718007305293</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>689.308185715724</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>514.855156434597</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>365.9207467733457</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>206.6832917678902</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>206.6832917678902</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>69.80729798300612</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>69.80729798300612</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919906</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>1988.031189642585</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2029.495166406371</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>1834.784844880347</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>1762.524786666223</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1527.37267843448</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1273.135321706279</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1065.283821500746</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>857.5235227357921</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>944.587906063767</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="C10" t="n">
-        <v>775.6517231358602</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="D10" t="n">
-        <v>625.5350837235244</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941286</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962183</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1377.190882465729</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1178.011396849955</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1178.011396849955</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>955.1533814223809</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>700.4688932164941</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>411.0517231795335</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.028950037537</v>
+        <v>411.0517231795335</v>
       </c>
       <c r="Y10" t="n">
-        <v>1126.236370894007</v>
+        <v>190.2591440360034</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1127.748203495404</v>
+        <v>1938.90602284268</v>
       </c>
       <c r="C11" t="n">
-        <v>810.5660676371781</v>
+        <v>1569.943505902268</v>
       </c>
       <c r="D11" t="n">
-        <v>452.3003690304276</v>
+        <v>1211.677807295518</v>
       </c>
       <c r="E11" t="n">
-        <v>66.51211643218342</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218342</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5053,40 +5053,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066532</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W11" t="n">
-        <v>2277.953133796417</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X11" t="n">
-        <v>1904.487375535337</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="Y11" t="n">
-        <v>1514.348043559526</v>
+        <v>2325.505862906802</v>
       </c>
     </row>
     <row r="12">
@@ -5096,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
         <v>765.151745215813</v>
@@ -5138,10 +5138,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218342</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218342</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218342</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>305.7580249717131</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>138.0551883464321</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,10 +5220,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
         <v>1735.608663915319</v>
@@ -5232,19 +5232,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610489</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046018</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676413</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X13" t="n">
-        <v>452.6479724696239</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y13" t="n">
-        <v>231.8553933260938</v>
+        <v>452.6479724696235</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1278.332234886374</v>
+        <v>1642.972675199007</v>
       </c>
       <c r="C14" t="n">
-        <v>909.3697179459625</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>909.3697179459625</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>523.5814653477182</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912082</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810546</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U14" t="n">
-        <v>3112.368707801073</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V14" t="n">
-        <v>2781.305820457502</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W14" t="n">
-        <v>2428.537165187387</v>
+        <v>2403.038273524208</v>
       </c>
       <c r="X14" t="n">
-        <v>2055.071406926308</v>
+        <v>2029.572515263128</v>
       </c>
       <c r="Y14" t="n">
-        <v>1664.932074950496</v>
+        <v>2029.572515263128</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>520.9582602004497</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C16" t="n">
-        <v>352.0220772725428</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D16" t="n">
-        <v>352.0220772725428</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E16" t="n">
-        <v>352.0220772725428</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
         <v>111.6347488791189</v>
@@ -5472,16 +5472,16 @@
         <v>1513.842048484845</v>
       </c>
       <c r="V16" t="n">
-        <v>1259.157560278958</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W16" t="n">
-        <v>969.7403902419971</v>
+        <v>1457.015761506659</v>
       </c>
       <c r="X16" t="n">
-        <v>741.7508393439798</v>
+        <v>1229.026210608642</v>
       </c>
       <c r="Y16" t="n">
-        <v>520.9582602004497</v>
+        <v>1008.233631465111</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2303.170539913434</v>
+        <v>1501.213961756482</v>
       </c>
       <c r="C17" t="n">
-        <v>1934.208022973022</v>
+        <v>1132.25144481607</v>
       </c>
       <c r="D17" t="n">
-        <v>1575.942324366272</v>
+        <v>773.9857462093198</v>
       </c>
       <c r="E17" t="n">
-        <v>1190.154071768027</v>
+        <v>388.1974936110756</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>388.1974936110756</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5527,40 +5527,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W17" t="n">
-        <v>2303.170539913434</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="X17" t="n">
-        <v>2303.170539913434</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="Y17" t="n">
-        <v>2303.170539913434</v>
+        <v>1887.813801820604</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5615,7 +5615,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>452.6479724696235</v>
+        <v>530.2513404403937</v>
       </c>
       <c r="C19" t="n">
-        <v>452.6479724696235</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D19" t="n">
-        <v>302.5313330572877</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E19" t="n">
-        <v>154.6182394748946</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F19" t="n">
-        <v>154.6182394748946</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
         <v>111.6347488791189</v>
@@ -5706,19 +5706,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610488</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V19" t="n">
-        <v>970.0546934046014</v>
+        <v>1450.099105349142</v>
       </c>
       <c r="W19" t="n">
-        <v>680.6375233676408</v>
+        <v>1160.681935312181</v>
       </c>
       <c r="X19" t="n">
-        <v>452.6479724696235</v>
+        <v>932.6923844141636</v>
       </c>
       <c r="Y19" t="n">
-        <v>452.6479724696235</v>
+        <v>711.8998052706335</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1771.418012197379</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C20" t="n">
-        <v>1402.455495256967</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D20" t="n">
-        <v>1044.189796650217</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E20" t="n">
-        <v>1044.189796650217</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>633.2038918606092</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5752,19 +5752,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5785,19 +5785,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V20" t="n">
-        <v>2884.252265792695</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W20" t="n">
-        <v>2531.48361052258</v>
+        <v>2396.53785896389</v>
       </c>
       <c r="X20" t="n">
-        <v>2158.017852261501</v>
+        <v>2396.53785896389</v>
       </c>
       <c r="Y20" t="n">
-        <v>2158.017852261501</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5849,7 +5849,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>644.3338566427974</v>
+        <v>628.7269654071706</v>
       </c>
       <c r="C22" t="n">
-        <v>644.3338566427974</v>
+        <v>628.7269654071706</v>
       </c>
       <c r="D22" t="n">
-        <v>494.2172172304616</v>
+        <v>478.6103259948349</v>
       </c>
       <c r="E22" t="n">
-        <v>346.3041236480685</v>
+        <v>330.6972324124417</v>
       </c>
       <c r="F22" t="n">
-        <v>199.4141761501582</v>
+        <v>183.8072849145314</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218342</v>
@@ -5910,16 +5910,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1416.425065783662</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V22" t="n">
-        <v>1161.740577577775</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W22" t="n">
-        <v>872.3234075408147</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="X22" t="n">
-        <v>644.3338566427974</v>
+        <v>1031.16800938094</v>
       </c>
       <c r="Y22" t="n">
-        <v>644.3338566427974</v>
+        <v>810.3754302374103</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1311.909787855437</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C23" t="n">
-        <v>1311.909787855437</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="D23" t="n">
-        <v>953.6440892486869</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E23" t="n">
-        <v>567.8558366504426</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F23" t="n">
-        <v>567.8558366504426</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G23" t="n">
-        <v>152.7833864954391</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6019,22 +6019,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.509627919559</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y23" t="n">
-        <v>1698.509627919559</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="24">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>452.6479724696239</v>
+        <v>525.6839958452709</v>
       </c>
       <c r="C25" t="n">
-        <v>452.6479724696239</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D25" t="n">
-        <v>452.6479724696239</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E25" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218342</v>
@@ -6183,16 +6183,16 @@
         <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>970.0546934046018</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W25" t="n">
-        <v>680.6375233676413</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X25" t="n">
-        <v>452.6479724696239</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="Y25" t="n">
-        <v>452.6479724696239</v>
+        <v>707.3324606755107</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1624.638712032431</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C26" t="n">
-        <v>1255.676195092019</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
-        <v>897.4104964852691</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>511.6222438870248</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>100.6363390974172</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2388.243802269323</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X26" t="n">
-        <v>2014.778044008243</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y26" t="n">
-        <v>1624.638712032431</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>231.8553933260938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C28" t="n">
-        <v>231.8553933260938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D28" t="n">
-        <v>231.8553933260938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E28" t="n">
-        <v>231.8553933260938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
-        <v>84.96544582818348</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6414,22 +6414,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U28" t="n">
-        <v>1224.739181610489</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V28" t="n">
-        <v>970.0546934046018</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W28" t="n">
-        <v>680.6375233676413</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X28" t="n">
-        <v>452.6479724696239</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y28" t="n">
-        <v>231.8553933260938</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1363.124011696102</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C29" t="n">
-        <v>1250.836169983545</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D29" t="n">
-        <v>892.5704713767946</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
         <v>892.5704713767946</v>
@@ -6454,16 +6454,16 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
@@ -6472,7 +6472,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6484,7 +6484,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
@@ -6493,22 +6493,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U29" t="n">
-        <v>2866.09759726723</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V29" t="n">
-        <v>2866.09759726723</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W29" t="n">
-        <v>2513.328941997116</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X29" t="n">
-        <v>2139.863183736036</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y29" t="n">
-        <v>1749.723851760224</v>
+        <v>2182.266054653544</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>249.4793381277382</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C31" t="n">
-        <v>249.4793381277382</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D31" t="n">
-        <v>249.4793381277382</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E31" t="n">
-        <v>249.4793381277382</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1424.011591242373</v>
+        <v>1845.973366846992</v>
       </c>
       <c r="U31" t="n">
-        <v>1424.011591242373</v>
+        <v>1556.870499972636</v>
       </c>
       <c r="V31" t="n">
-        <v>1169.327103036486</v>
+        <v>1302.186011766749</v>
       </c>
       <c r="W31" t="n">
-        <v>879.9099329995254</v>
+        <v>1012.768841729788</v>
       </c>
       <c r="X31" t="n">
-        <v>651.920382101508</v>
+        <v>784.7792908317706</v>
       </c>
       <c r="Y31" t="n">
-        <v>431.1278029579779</v>
+        <v>563.9867116882405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1594.601034732593</v>
+        <v>1642.972675199008</v>
       </c>
       <c r="C32" t="n">
-        <v>1225.638517792182</v>
+        <v>1274.010158258596</v>
       </c>
       <c r="D32" t="n">
-        <v>867.3728191854311</v>
+        <v>1274.010158258596</v>
       </c>
       <c r="E32" t="n">
-        <v>481.5845665871869</v>
+        <v>888.2219056603521</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U32" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>2630.721789066532</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W32" t="n">
-        <v>2358.206124969485</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X32" t="n">
-        <v>1984.740366708405</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y32" t="n">
-        <v>1594.601034732593</v>
+        <v>2029.57251526313</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X33" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>231.8553933260938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C34" t="n">
-        <v>231.8553933260938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D34" t="n">
-        <v>231.8553933260938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E34" t="n">
-        <v>83.94229974370072</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1458.811090838974</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C35" t="n">
-        <v>1089.848573898563</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D35" t="n">
-        <v>1089.848573898563</v>
+        <v>971.2814123723974</v>
       </c>
       <c r="E35" t="n">
-        <v>704.0603213003183</v>
+        <v>585.4931597741531</v>
       </c>
       <c r="F35" t="n">
-        <v>293.0744165107107</v>
+        <v>585.4931597741531</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>170.4207096191496</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6937,13 +6937,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U35" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2961.784676410102</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W35" t="n">
-        <v>2609.016021139988</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X35" t="n">
-        <v>2235.550262878908</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y35" t="n">
-        <v>1845.410930903096</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>533.4780323548191</v>
+        <v>521.2725633630544</v>
       </c>
       <c r="C37" t="n">
         <v>364.5418494269122</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>1453.325797263567</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W37" t="n">
-        <v>1163.908627226606</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X37" t="n">
-        <v>935.919076328589</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y37" t="n">
-        <v>715.1264971850588</v>
+        <v>521.2725633630544</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1698.50962791956</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C38" t="n">
-        <v>1329.547110979148</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="D38" t="n">
-        <v>971.2814123723979</v>
+        <v>563.5047572728747</v>
       </c>
       <c r="E38" t="n">
-        <v>585.4931597741536</v>
+        <v>177.7165046746305</v>
       </c>
       <c r="F38" t="n">
-        <v>585.4931597741536</v>
+        <v>177.7165046746305</v>
       </c>
       <c r="G38" t="n">
-        <v>170.42070961915</v>
+        <v>177.7165046746305</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810566</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y38" t="n">
-        <v>1698.50962791956</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7271,34 +7271,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>231.8553933260938</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C40" t="n">
-        <v>231.8553933260938</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D40" t="n">
-        <v>231.8553933260938</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E40" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7353,31 +7353,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V40" t="n">
-        <v>970.0546934046018</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="W40" t="n">
-        <v>680.6375233676413</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="X40" t="n">
-        <v>452.6479724696239</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y40" t="n">
-        <v>231.8553933260938</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1689.318139675982</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C41" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U41" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V41" t="n">
-        <v>2839.523069976995</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W41" t="n">
-        <v>2839.523069976995</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X41" t="n">
-        <v>2466.057311715915</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y41" t="n">
-        <v>2075.917979740103</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.51211643218342</v>
+        <v>788.4062285743616</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7590,10 +7590,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
         <v>1735.608663915319</v>
@@ -7602,19 +7602,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610489</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V43" t="n">
-        <v>970.0546934046018</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W43" t="n">
-        <v>680.6375233676413</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="X43" t="n">
-        <v>452.6479724696239</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="Y43" t="n">
-        <v>248.1605812624231</v>
+        <v>970.0546934046014</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1381.278680221568</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C44" t="n">
-        <v>1381.278680221568</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U44" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="V44" t="n">
-        <v>2884.252265792695</v>
+        <v>3192.291725247109</v>
       </c>
       <c r="W44" t="n">
-        <v>2531.483610522581</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X44" t="n">
-        <v>2158.017852261501</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y44" t="n">
-        <v>1767.878520285689</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7742,10 +7742,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,64 +7782,64 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.739181610489</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V46" t="n">
         <v>986.3598813409312</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>6.233205181928383</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>66.78462588923531</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8142,7 +8142,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>101.9822523045393</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157999</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>65.25087362574499</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.32591189689013</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111057</v>
+        <v>87.83296830063472</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>142.1224219307567</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.83417464571</v>
+        <v>173.1089558044317</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>75.23293593371048</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862871</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590681</v>
+        <v>138.0181279943753</v>
       </c>
       <c r="X2" t="n">
-        <v>337.1759186531419</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>136.273228392346</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>11.88703501941453</v>
       </c>
       <c r="X3" t="n">
-        <v>98.3849132848361</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>12.15006399772102</v>
       </c>
       <c r="U4" t="n">
-        <v>124.7785845539252</v>
+        <v>46.45270651659192</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>12.32969518232292</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350848</v>
+        <v>46.71505019508592</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2818458970816</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323769</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539898</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398516</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8718965061022</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1039815783922</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>188.9157118944104</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>269.7294764113088</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>114.3825562074788</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -22880,10 +22880,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,19 +22910,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8350452710705</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -22931,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.3764064239517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22953,19 +22953,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>143.5072587621536</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6359113765081</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679149</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6998850700521</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887348</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>62.19196350811717</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23026,10 +23026,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>215.8952809520213</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23038,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23074,16 +23074,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>10.98396408902613</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23111,13 +23111,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23156,7 +23156,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>154.283116336086</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>36.86770568546737</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>65.60562254241793</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>51.26257727136402</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>360.6218719000461</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.14213605696602</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>73.9273737192146</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>358.9881216799623</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>149.078191077061</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>28.79199505000372</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983812</v>
@@ -23712,10 +23712,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>230.264974228187</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>92.4532022463502</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>228.8832021954669</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>78.80074644674416</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>189.0321296194819</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>144.5046323666323</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>117.3988779157987</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>34.45276913823324</v>
+        <v>49.90359146150375</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,22 +24211,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>159.1264480123943</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>209.1992070246974</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>153.137144167384</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>75.60632145146252</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>317.009279471627</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>377.138745214872</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>147.7570121569882</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>16.14213605696608</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>207.821517683451</v>
       </c>
       <c r="C29" t="n">
-        <v>254.1079284755758</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>130.3093068033602</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.0409798470835</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>45.88200983220389</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>79.45046126133633</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>128.1651665445291</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>186.6250485757114</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>191.738257132224</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>12.08341430184711</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>69.12041821276446</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>191.7382571322235</v>
+        <v>184.5154200272979</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>128.1651665445291</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>148.0000946946598</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>271.8145707770562</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>97.52550631318312</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>59.06794202461245</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.14213605696602</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>252.7922849366195</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>304.9590648598721</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>16.1421360569671</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>16.14213605696614</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>526021.0465876196</v>
+        <v>506983.4949117686</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>636869.8957266308</v>
+        <v>526021.0465876195</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>786603.5371079207</v>
+        <v>718396.6610026539</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>863471.7387975235</v>
+        <v>863471.7387975237</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>863471.7387975235</v>
+        <v>863471.7387975234</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>863471.7387975238</v>
+        <v>863471.7387975233</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>863471.7387975237</v>
+        <v>863471.7387975235</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>863471.7387975237</v>
+        <v>863471.7387975235</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>863471.7387975235</v>
+        <v>863471.7387975234</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>863471.7387975234</v>
+        <v>863471.7387975237</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>863471.7387975234</v>
+        <v>863471.7387975232</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>196739.5707604095</v>
+      </c>
+      <c r="C2" t="n">
         <v>203966.5811971124</v>
       </c>
-      <c r="C2" t="n">
-        <v>247461.8373661094</v>
-      </c>
       <c r="D2" t="n">
-        <v>305971.6304943086</v>
+        <v>279547.2423401894</v>
       </c>
       <c r="E2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="F2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="G2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="H2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="I2" t="n">
         <v>340997.0989709205</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>340997.0989709206</v>
+      </c>
+      <c r="K2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="L2" t="n">
         <v>340997.0989709205</v>
       </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
         <v>340997.0989709207</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
         <v>340997.0989709205</v>
       </c>
-      <c r="I2" t="n">
-        <v>340997.0989709207</v>
-      </c>
-      <c r="J2" t="n">
-        <v>340997.0989709205</v>
-      </c>
-      <c r="K2" t="n">
-        <v>340997.0989709207</v>
-      </c>
-      <c r="L2" t="n">
-        <v>340997.0989709207</v>
-      </c>
-      <c r="M2" t="n">
-        <v>340997.0989709204</v>
-      </c>
-      <c r="N2" t="n">
-        <v>340997.0989709207</v>
-      </c>
       <c r="O2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="P2" t="n">
         <v>340997.0989709205</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>652246.4444800896</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739472</v>
+        <v>26462.50553395151</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819101</v>
+        <v>291724.1809599825</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>276030.7457669097</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911414</v>
+        <v>62744.31078353596</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640742</v>
+        <v>6152.621870944753</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.2912194688</v>
+        <v>70460.80690932018</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341482</v>
+        <v>72091.35261608614</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>15342.51783632109</v>
+      </c>
+      <c r="C4" t="n">
         <v>16333.27348544815</v>
       </c>
-      <c r="C4" t="n">
-        <v>18567.93185710822</v>
-      </c>
       <c r="D4" t="n">
-        <v>22196.27613594852</v>
+        <v>19973.84716017453</v>
       </c>
       <c r="E4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712842</v>
       </c>
       <c r="F4" t="n">
         <v>11600.23499712842</v>
       </c>
       <c r="G4" t="n">
-        <v>11600.23499712841</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="H4" t="n">
         <v>11600.2349971284</v>
@@ -26453,7 +26453,7 @@
         <v>11600.2349971284</v>
       </c>
       <c r="N4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712842</v>
       </c>
       <c r="O4" t="n">
         <v>11600.2349971284</v>
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>61145.70223437333</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923096</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26505,13 +26505,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139326</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-565830.1912705465</v>
+        <v>-533064.0003612333</v>
       </c>
       <c r="C6" t="n">
-        <v>-31678.54272247861</v>
+        <v>97090.22745477142</v>
       </c>
       <c r="D6" t="n">
-        <v>-38276.19018528635</v>
+        <v>-118004.7358487996</v>
       </c>
       <c r="E6" t="n">
-        <v>69541.35429714709</v>
+        <v>-21287.8412843168</v>
       </c>
       <c r="F6" t="n">
-        <v>251614.3341143379</v>
+        <v>254742.9044825926</v>
       </c>
       <c r="G6" t="n">
-        <v>251614.3341143379</v>
+        <v>254742.9044825927</v>
       </c>
       <c r="H6" t="n">
-        <v>251614.3341143378</v>
+        <v>254742.9044825929</v>
       </c>
       <c r="I6" t="n">
-        <v>251614.334114338</v>
+        <v>254742.9044825925</v>
       </c>
       <c r="J6" t="n">
-        <v>182615.1796952236</v>
+        <v>191998.5936990568</v>
       </c>
       <c r="K6" t="n">
-        <v>210537.3525679305</v>
+        <v>248590.2826116479</v>
       </c>
       <c r="L6" t="n">
-        <v>196626.0428948691</v>
+        <v>184282.0975732726</v>
       </c>
       <c r="M6" t="n">
-        <v>204062.0683209228</v>
+        <v>182651.5518665067</v>
       </c>
       <c r="N6" t="n">
-        <v>251614.334114338</v>
+        <v>254742.9044825927</v>
       </c>
       <c r="O6" t="n">
-        <v>251614.3341143378</v>
+        <v>254742.9044825928</v>
       </c>
       <c r="P6" t="n">
-        <v>251614.3341143378</v>
+        <v>254742.9044825929</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908039</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919643</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
@@ -26813,25 +26813,25 @@
         <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213256</v>
+        <v>20.57891343141318</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267353</v>
+        <v>239.6556507682059</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757591</v>
+        <v>236.0660360556139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904581</v>
+        <v>23.90593186000106</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080746</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022539</v>
+        <v>289.2864986761292</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904581</v>
+        <v>23.90593186000106</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080746</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022537</v>
+        <v>289.2864986761293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904581</v>
+        <v>23.90593186000106</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080746</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>289.2864986761292</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>91.9798486765156</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T2" t="n">
-        <v>10.8061339609081</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75612396528671</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>89.61489115104781</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053481</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339022</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050069</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677668</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599708</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159751</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285337</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383282</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113088</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906134</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190731</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025521</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639376</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802912</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442784</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546258</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395991</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328124</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433199</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499192</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876863</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449881</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345725</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587843</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077323</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970978</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670738</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633069</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807063</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043591</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.35506798195063</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>12.0477862395247</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720623</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390952</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029913</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>201.461652516551</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706792</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379543</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488036</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170107</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886114</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843467</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>23.6151392854487</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879963</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548899</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,7 +31998,7 @@
         <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953982</v>
       </c>
       <c r="K14" t="n">
         <v>557.2811376003809</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32800,13 +32800,13 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>83.39712583292152</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>188.5852654802097</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>68.29072693268384</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>227.9081740394986</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877689</v>
+        <v>22.9666072747242</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>126.2075456122964</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>3.452847899353429</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108056</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149902</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459879</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>300.095902101261</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417373</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896221</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353439</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446236</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>91.11999510239821</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755602</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078122</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229698</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512392</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143399</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934021</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.4172813469253</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207236749</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771085</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768671</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325198</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171829</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628433</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819042</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691701</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>535.1379358731701</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419603</v>
+        <v>182.2511487495638</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687119</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554004</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882187</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36448,13 +36448,13 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
